--- a/medicine/Sexualité et sexologie/Aphanisis/Aphanisis.xlsx
+++ b/medicine/Sexualité et sexologie/Aphanisis/Aphanisis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’aphanisis est un terme désignant le défaut d’apparition ou la disparition du désir sexuel chez l’homme ou la femme, sans préjuger de son origine psychologique ou physiologique. 
 </t>
@@ -511,7 +523,9 @@
           <t>Médecine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle peut être la cause de l’impuissance sexuelle ou de la frigidité.
 </t>
@@ -542,11 +556,11 @@
           <t>Psychanalyse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon Ernest Jones, l’aphanisis serait, pour les deux sexes, l’objet d’une crainte plus fondamentale que la crainte de la castration.
-Psychanalyse lacanienne
-L’aphanisis est un terme important de la psychanalyse lacanienne (cf. Les quatre concepts fondamentaux de la Psychanalyse), elle en modifie le sens de manière substantielle : c’est en raison de la castration (préexistant à l’aphanisis) que le sujet peut redouter la disparition de son désir.
 </t>
         </is>
       </c>
@@ -572,10 +586,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Psychanalyse</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Psychanalyse lacanienne</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’aphanisis est un terme important de la psychanalyse lacanienne (cf. Les quatre concepts fondamentaux de la Psychanalyse), elle en modifie le sens de manière substantielle : c’est en raison de la castration (préexistant à l’aphanisis) que le sujet peut redouter la disparition de son désir.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Aphanisis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aphanisis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">asexualité
  Portail de la sexualité et de la sexologie   Portail de la psychologie                    </t>
